--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_3.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_3.xlsx
@@ -483,76 +483,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1052955665024631</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['A', 'D', 'G']]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.158117, 12.997936), (31.43458, 34.406734)]</t>
+          <t>[(4.615532, 8.760294)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361), (60.898, 67.056)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[(31.840929, 39.410634)]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1715686274509804</v>
+        <v>0.23992133726647</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['C:7', 'F', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
+          <t>[(10.13, 14.45)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.971, 19.435)]</t>
+          <t>[(12.86, 25.02)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -561,40 +561,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1142241379310345</v>
+        <v>0.1617873651771957</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(30.494172, 33.431496)]</t>
+          <t>[(7.76, 14.32), (8.78, 15.8)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(62.6, 73.24)]</t>
+          <t>[(15.79, 20.07), (11.55, 15.79)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -602,35 +602,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[(101.06, 102.38)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[(66.98, 83.84)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -640,42 +640,42 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3101503759398496</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F', 'C', 'F']]</t>
+          <t>[['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D', 'G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.717289, 19.597664)]</t>
+          <t>[(13.527, 17.058)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(57.401473, 68.558662)]</t>
+          <t>[(69.36, 73.2)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -684,200 +684,212 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06255060728744939</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(51.641107, 57.139232)]</t>
+          <t>[(8.2, 12.66)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(55.4, 63.68)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[(36.66, 43.94)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1517241379310345</v>
+        <v>0.05796064400715564</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[(43.68, 45.8)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[(1.54, 6.88)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
+          <t>[(120.22, 121.92)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[(27.76, 40.18)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1405405405405405</v>
+        <v>0.08664596273291925</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
+          <t>[(6.38, 9.89)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(44.2, 59.98)]</t>
+          <t>[(17.9, 20.08)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.1715116279069767</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['G/3', 'C', 'G', 'A:min7']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['G', 'C', 'G/3', 'A:min7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.18, 13.74)]</t>
+          <t>[(13.079206, 18.936988)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(122.57, 124.49)]</t>
+          <t>[(18.826145, 27.476822)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -885,122 +897,122 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.106312292358804</v>
+        <v>0.1179401993355482</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['G/3', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D/5', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(20.86, 27.06)]</t>
+          <t>[(41.649, 47.902)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.4, 15.42)]</t>
+          <t>[(16.525575, 23.735371)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.05155038759689923</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj(*1)/5', 'G', 'G'], ['G', 'G', 'C']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B', 'B/7', 'B/6'], ['B', 'B/3', 'E']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614), (14.628775, 25.350952)]</t>
+          <t>[(12.851927, 16.810929)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.440395, 2.746326), (153.617981, 161.988775)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[(21.08, 23.68)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.07984496124031007</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'F#:dim7', 'G:min'], ['D:7', 'G:min', 'G:min', 'A:hdim7/C'], ['G:min', 'F#:dim7', 'G:min', 'F#:dim7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.92, 22.04), (11.62, 16.92), (18.2, 23.32)]</t>
+          <t>[(16.04, 21.0)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(75.98, 85.72), (24.76, 32.32), (0.24, 9.24)]</t>
+          <t>[(7.6, 23.34)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1008,35 +1020,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2757352941176471</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
+          <t>[(205.86, 217.18)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
+          <t>[(74.4, 86.06)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1045,81 +1057,81 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.06201923076923077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.26, 34.28)]</t>
+          <t>[(70.38, 83.28)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(49.06, 57.32)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[(20.04, 23.45)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.21</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['A', 'F#:7', 'B:7', 'E:7', 'A', 'A']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['Eb', 'C:7', 'F:7', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(20.544421, 29.751133)]</t>
+          <t>[(118.44, 122.34)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(38.79, 46.63)]</t>
+          <t>[(5.91585, 20.672131)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_3.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,658 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1254901960784314</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2152173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj'], ['A:7', 'D:maj', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.615532, 8.760294)]</t>
+          <t>[['Eb', 'Bb:7', 'Eb'], ['D:7', 'G', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:18.060000', '0:00:20.600000'), ('0:00:12.240000', '0:00:16.420000'), ('0:00:00.500000', '0:00:03.900000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:48.001000', '0:00:54.307000'), ('0:01:16.958000', '0:01:25.346000'), ('0:00:07.702000', '0:00:13.841000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.23992133726647</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.13, 14.45)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.86, 25.02)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1617873651771957</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32), (8.78, 15.8)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (11.55, 15.79)]</t>
+          <t>[('0:00:23.080000', '0:00:30.920000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:39.580000', '0:00:46.780000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2946428571428572</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:00:51.690000', '0:00:55.720000'), ('0:00:50.360000', '0:00:54.400000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:03:36.280000', '0:03:44.400000'), ('0:00:51.960000', '0:00:58.620000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1438263229308005</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.527, 17.058)]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:17.380000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.370000', '0:00:08.660000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:01:14.120000', '0:01:26.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.53125</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.76, 40.18)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08664596273291925</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.38, 9.89)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1715116279069767</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G', 'A:min7']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3', 'A:min7']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.079206, 18.936988)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.826145, 27.476822)]</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1179401993355482</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G:maj', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'D', 'G', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.649, 47.902)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.525575, 23.735371)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.6, 23.34)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(205.86, 217.18)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(74.4, 86.06)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06201923076923077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(70.38, 83.28)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(118.44, 122.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.91585, 20.672131)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
